--- a/output/basic/runtime_comparison.xlsx
+++ b/output/basic/runtime_comparison.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.023</v>
+        <v>0.262</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
